--- a/biology/Zoologie/Heteralepadidae/Heteralepadidae.xlsx
+++ b/biology/Zoologie/Heteralepadidae/Heteralepadidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heteralepadidae sont une famille d'arthropodes cirripèdes de l'ordre des Scalpellomorpha.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Heteralepadidae a été créée en 1921 par le zoologiste suédois Carl August Nilsson-Cantell (d) (1893-1987)[1] avec comme espèce type Heteralepas rex Pilsbry, 1907[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Heteralepadidae a été créée en 1921 par le zoologiste suédois Carl August Nilsson-Cantell (d) (1893-1987) avec comme espèce type Heteralepas rex Pilsbry, 1907.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (17 juillet 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (17 juillet 2022) :
 genre Alepas Rang, 1829
 genre Heteralepas Pilsbry, 1907
 genre Koleolepas Stebbing, 1900
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Carl-Aug. Nilsson-Cantell, Cirripeden-Studien; zur Kenntnis der Biologie, Anatomie und Systematik dieser Gruppe,  (publication), Inconnu, Uppsala, 1921, [lire en ligne]</t>
         </is>
